--- a/ztools/excels/my.xlsx
+++ b/ztools/excels/my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangyisan\Desktop\github\huangyisan\handler_zabbix\ztools\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC10EA71-B8F2-40E5-9F9E-A68AA7272217}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E49E73-F32E-481E-AF3A-8852A84647F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030" xr2:uid="{6CD5F427-E7D2-4BDF-831D-AAB526D813D7}"/>
   </bookViews>
@@ -25,10 +25,122 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+  <si>
+    <t>test1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hostname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.2.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bond0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>2.2.2.3</t>
+  </si>
+  <si>
+    <t>bond1</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>2.2.2.4</t>
+  </si>
+  <si>
+    <t>bond2</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+  </si>
+  <si>
+    <t>2.2.2.5</t>
+  </si>
+  <si>
+    <t>bond3</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>1.1.1.5</t>
+  </si>
+  <si>
+    <t>2.2.2.6</t>
+  </si>
+  <si>
+    <t>bond4</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>1.1.1.6</t>
+  </si>
+  <si>
+    <t>2.2.2.7</t>
+  </si>
+  <si>
+    <t>bond5</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>1.1.1.7</t>
+  </si>
+  <si>
+    <t>2.2.2.8</t>
+  </si>
+  <si>
+    <t>bond6</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>1.1.1.8</t>
+  </si>
+  <si>
+    <t>2.2.2.9</t>
+  </si>
+  <si>
+    <t>bond7</t>
   </si>
 </sst>
 </file>
@@ -392,15 +504,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFC1C30-B7AD-455D-A2B9-079B3D0AD9EC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ztools/excels/my.xlsx
+++ b/ztools/excels/my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangyisan\Desktop\github\huangyisan\handler_zabbix\ztools\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E49E73-F32E-481E-AF3A-8852A84647F2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D051A62C-8F8A-46BE-A3DB-9A554ED78BD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030" xr2:uid="{6CD5F427-E7D2-4BDF-831D-AAB526D813D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
   <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +35,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1.1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>1.1.1.5</t>
+  </si>
+  <si>
+    <t>test6</t>
+  </si>
+  <si>
+    <t>1.1.1.6</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>1.1.1.7</t>
+  </si>
+  <si>
+    <t>test8</t>
+  </si>
+  <si>
+    <t>1.1.1.8</t>
+  </si>
+  <si>
+    <t>main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ip</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -43,104 +97,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>eth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.2.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bond0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>1.1.1.2</t>
-  </si>
-  <si>
-    <t>2.2.2.3</t>
-  </si>
-  <si>
-    <t>bond1</t>
-  </si>
-  <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>1.1.1.3</t>
-  </si>
-  <si>
-    <t>2.2.2.4</t>
-  </si>
-  <si>
-    <t>bond2</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>1.1.1.4</t>
-  </si>
-  <si>
-    <t>2.2.2.5</t>
-  </si>
-  <si>
-    <t>bond3</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>1.1.1.5</t>
-  </si>
-  <si>
-    <t>2.2.2.6</t>
-  </si>
-  <si>
-    <t>bond4</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>1.1.1.6</t>
-  </si>
-  <si>
-    <t>2.2.2.7</t>
-  </si>
-  <si>
-    <t>bond5</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>1.1.1.7</t>
-  </si>
-  <si>
-    <t>2.2.2.8</t>
-  </si>
-  <si>
-    <t>bond6</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>1.1.1.8</t>
-  </si>
-  <si>
-    <t>2.2.2.9</t>
-  </si>
-  <si>
-    <t>bond7</t>
+    <t>port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templatename</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>interface type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -504,142 +486,239 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFC1C30-B7AD-455D-A2B9-079B3D0AD9EC}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I2">
+        <v>10050</v>
+      </c>
+      <c r="J2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="I3">
+        <v>10050</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I4">
+        <v>10050</v>
+      </c>
+      <c r="J4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="I5">
+        <v>10050</v>
+      </c>
+      <c r="J5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I6">
+        <v>10050</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
+      <c r="I7">
+        <v>10050</v>
+      </c>
+      <c r="J7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I8">
+        <v>10050</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>35</v>
+      <c r="I9">
+        <v>10050</v>
+      </c>
+      <c r="J9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ztools/excels/my.xlsx
+++ b/ztools/excels/my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangyisan\Desktop\github\huangyisan\handler_zabbix\ztools\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D051A62C-8F8A-46BE-A3DB-9A554ED78BD6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C91E2C-9F4F-426B-A9F7-6D4C30434A2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030" xr2:uid="{6CD5F427-E7D2-4BDF-831D-AAB526D813D7}"/>
   </bookViews>
@@ -489,7 +489,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -536,6 +536,9 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
@@ -547,6 +550,9 @@
       </c>
       <c r="G2" t="s">
         <v>2</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
       </c>
       <c r="I2">
         <v>10050</v>
@@ -559,6 +565,12 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>26</v>
       </c>
@@ -570,6 +582,9 @@
       </c>
       <c r="G3" t="s">
         <v>4</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
       </c>
       <c r="I3">
         <v>10050</v>
@@ -582,6 +597,12 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>26</v>
       </c>
@@ -593,6 +614,9 @@
       </c>
       <c r="G4" t="s">
         <v>6</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
       <c r="I4">
         <v>10050</v>
@@ -605,6 +629,12 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
@@ -616,6 +646,9 @@
       </c>
       <c r="G5" t="s">
         <v>8</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5">
         <v>10050</v>
@@ -628,6 +661,12 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
@@ -639,6 +678,9 @@
       </c>
       <c r="G6" t="s">
         <v>10</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="I6">
         <v>10050</v>
@@ -651,6 +693,12 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
@@ -662,6 +710,9 @@
       </c>
       <c r="G7" t="s">
         <v>12</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7">
         <v>10050</v>
@@ -674,6 +725,12 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
       <c r="D8" t="s">
         <v>26</v>
       </c>
@@ -685,6 +742,9 @@
       </c>
       <c r="G8" t="s">
         <v>14</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8">
         <v>10050</v>
@@ -697,6 +757,12 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="D9" t="s">
         <v>26</v>
       </c>
@@ -708,6 +774,9 @@
       </c>
       <c r="G9" t="s">
         <v>16</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9">
         <v>10050</v>

--- a/ztools/excels/my.xlsx
+++ b/ztools/excels/my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangyisan\Desktop\github\huangyisan\handler_zabbix\ztools\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C91E2C-9F4F-426B-A9F7-6D4C30434A2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9831BE0A-E5E4-4DCF-A5FD-E8627745004B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030" xr2:uid="{6CD5F427-E7D2-4BDF-831D-AAB526D813D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
   <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,6 +122,38 @@
   </si>
   <si>
     <t>default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templatename2</t>
+  </si>
+  <si>
+    <t>templatename3</t>
+  </si>
+  <si>
+    <t>templatename4</t>
+  </si>
+  <si>
+    <t>templatename5</t>
+  </si>
+  <si>
+    <t>templatename6</t>
+  </si>
+  <si>
+    <t>templatename7</t>
+  </si>
+  <si>
+    <t>templatename8</t>
+  </si>
+  <si>
+    <t>templatename1 ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_gen1 auto_gen2</t>
+  </si>
+  <si>
+    <t>auto_gen1 auto_gen2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,13 +521,13 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.375" customWidth="1"/>
     <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -536,8 +568,11 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -565,11 +600,11 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -597,11 +632,11 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -629,11 +664,11 @@
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -661,11 +696,11 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -693,11 +728,11 @@
       <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -725,11 +760,11 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -757,11 +792,11 @@
       <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>

--- a/ztools/excels/my.xlsx
+++ b/ztools/excels/my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangyisan\Desktop\github\huangyisan\handler_zabbix\ztools\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9831BE0A-E5E4-4DCF-A5FD-E8627745004B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBAF772-E08F-4F89-88E7-8633E27BFB66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030" xr2:uid="{6CD5F427-E7D2-4BDF-831D-AAB526D813D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
   <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,35 +125,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>templatename2</t>
-  </si>
-  <si>
-    <t>templatename3</t>
-  </si>
-  <si>
-    <t>templatename4</t>
-  </si>
-  <si>
-    <t>templatename5</t>
-  </si>
-  <si>
-    <t>templatename6</t>
-  </si>
-  <si>
-    <t>templatename7</t>
-  </si>
-  <si>
-    <t>templatename8</t>
-  </si>
-  <si>
-    <t>templatename1 ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>auto_gen1 auto_gen2</t>
-  </si>
-  <si>
-    <t>auto_gen1 auto_gen2</t>
+    <t>auto_gen1|auto_gen2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_gen1|auto_gen2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flume_Process_Running_Check|DNS OS Linux</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +507,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="22.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="40.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -569,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -601,10 +581,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -633,10 +613,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -665,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
         <v>30</v>
@@ -697,10 +677,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -729,10 +709,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
@@ -761,10 +741,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>26</v>
@@ -793,10 +773,10 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
         <v>26</v>

--- a/ztools/excels/my.xlsx
+++ b/ztools/excels/my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangyisan\Desktop\github\huangyisan\handler_zabbix\ztools\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBAF772-E08F-4F89-88E7-8633E27BFB66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B067E2-C579-44F4-9713-7ECB0A3D3EAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030" xr2:uid="{6CD5F427-E7D2-4BDF-831D-AAB526D813D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
   <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>Flume_Process_Running_Check|DNS OS Linux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto_gen1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +505,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -549,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>30</v>

--- a/ztools/excels/my.xlsx
+++ b/ztools/excels/my.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huangyisan\Desktop\github\huangyisan\handler_zabbix\ztools\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B067E2-C579-44F4-9713-7ECB0A3D3EAA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60CA134A-23EE-4519-8079-FD86CC15246A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6030" xr2:uid="{6CD5F427-E7D2-4BDF-831D-AAB526D813D7}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,42 +45,6 @@
     <t>1.1.1.2</t>
   </si>
   <si>
-    <t>test3</t>
-  </si>
-  <si>
-    <t>1.1.1.3</t>
-  </si>
-  <si>
-    <t>test4</t>
-  </si>
-  <si>
-    <t>1.1.1.4</t>
-  </si>
-  <si>
-    <t>test5</t>
-  </si>
-  <si>
-    <t>1.1.1.5</t>
-  </si>
-  <si>
-    <t>test6</t>
-  </si>
-  <si>
-    <t>1.1.1.6</t>
-  </si>
-  <si>
-    <t>test7</t>
-  </si>
-  <si>
-    <t>1.1.1.7</t>
-  </si>
-  <si>
-    <t>test8</t>
-  </si>
-  <si>
-    <t>1.1.1.8</t>
-  </si>
-  <si>
     <t>main</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -129,15 +93,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>auto_gen1|auto_gen2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Flume_Process_Running_Check|DNS OS Linux</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>auto_gen1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc.cn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,8 +152,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFC1C30-B7AD-455D-A2B9-079B3D0AD9EC}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -521,31 +492,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -553,25 +524,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="I2">
         <v>10050</v>
@@ -585,222 +556,30 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="I3">
         <v>10050</v>
       </c>
       <c r="J3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>10050</v>
-      </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>10050</v>
-      </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>10050</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>10050</v>
-      </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>10050</v>
-      </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>10050</v>
-      </c>
-      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
